--- a/data/rayyan/outstanding_records.xlsx
+++ b/data/rayyan/outstanding_records.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">rayyan-325727806</t>
   </si>
   <si>
-    <t xml:space="preserve">A Perspective Study of the Predictive Value of microRNA in Patients With HER2 Positive Advanced Stage Breast Cancer Who Were Treated With Herceptin; microRNA of Human Epidermal Growth Factor Receptor 2 Ã¯Â¼Ë†HER2Ã¯Â¼â€°Positive Patient Treated With Herceptin</t>
+    <t xml:space="preserve">A Perspective Study of the Predictive Value of microRNA in Patients With HER2 Positive Advanced Stage Breast Cancer Who Were Treated With Herceptin; microRNA of Human Epidermal Growth Factor Receptor 2 ï¼ˆHER2ï¼‰Positive Patient Treated With Herceptin</t>
   </si>
   <si>
     <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Excluded", "Rex"=&gt;"Included"} | RAYYAN-LABELS: prognosis,development | USER-NOTES: {"Nicole"=&gt;["not a predictive model as based on correlations only. sounds like assay development"], "Rex"=&gt;["DISCUSSED - DECISION:REVISIT", "DECISION:EXCLUDE"]}</t>
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Development of Clinical Decision Support System to Define 30 Day Adverse Clinical Events (Non Fatal Myocardial Infarction; Cardiac Related Death or Coronary Intervention) for Patients Presenting to Emergency Department With Acute Coronary Syndrome; Clinical Decision Support System to Define 30 Day Adverse Clinical Events for Emergency Department Acute Coronary Syndromes</t>
   </si>
   <si>
-    <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Included", "dn.borg"=&gt;"Excluded"} | RAYYAN-LABELS: development | RAYYAN-EXCLUSION-REASONS: wrong study design | USER-NOTES: {"Rex"=&gt;["DISCUSSED - DECISION:INCLUDE"]}</t>
+    <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Included", "dn.borg"=&gt;"Excluded"} | RAYYAN-LABELS: Prognosis,development | RAYYAN-EXCLUSION-REASONS: wrong study design | USER-NOTES: {"Rex"=&gt;["DISCUSSED - DECISION:INCLUDE"]}</t>
   </si>
   <si>
     <t xml:space="preserve">rayyan-325727847</t>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">rayyan-325727901</t>
   </si>
   <si>
-    <t xml:space="preserve">A Phase IV Study to Collect Data on the Efficacy and Safety of RIBociclib With Letrozole in Older Women (Ã¢â€°Â¥70 Years) With HR+ and HER2- Advanced Breast Cancer (aBC) With no Prior Systemic Therapy for Advanced Disease.; A Phase IV Study to Collect Data on the Efficacy and Safety of RIBociclib in Older Women With Breastcancer</t>
+    <t xml:space="preserve">A Phase IV Study to Collect Data on the Efficacy and Safety of RIBociclib With Letrozole in Older Women (â‰¥70 Years) With HR+ and HER2- Advanced Breast Cancer (aBC) With no Prior Systemic Therapy for Advanced Disease.; A Phase IV Study to Collect Data on the Efficacy and Safety of RIBociclib in Older Women With Breastcancer</t>
   </si>
   <si>
     <t xml:space="preserve">rayyan-325727903</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">Integration of Metabolic and Inflammatory Mediator Profiles as a Potential Diagnostic Approach for Severe Sepsis in PICU; Early Identification and Effective Management of Pediatric Sepsis</t>
   </si>
   <si>
-    <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Included", "dn.borg"=&gt;"Excluded"} | RAYYAN-LABELS: development | RAYYAN-EXCLUSION-REASONS: wrong study design | USER-NOTES: {"Rex"=&gt;["DECISION:INCLUDE"]}</t>
+    <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Included", "dn.borg"=&gt;"Excluded"} | RAYYAN-LABELS: Diagnostic,development | RAYYAN-EXCLUSION-REASONS: wrong study design | USER-NOTES: {"Rex"=&gt;["DECISION:INCLUDE"]}</t>
   </si>
   <si>
     <t xml:space="preserve">rayyan-325727907</t>
@@ -597,7 +597,7 @@
     <t xml:space="preserve">rayyan-325728017</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationship Between Potential Predictors and Mortality in COVID-19 Patients in Turkey: A New Prognostic Model; Relationship Between Potential Predictors and Mortality in COVID-19 Patients Ã„Â±n Turkey</t>
+    <t xml:space="preserve">Relationship Between Potential Predictors and Mortality in COVID-19 Patients in Turkey: A New Prognostic Model; Relationship Between Potential Predictors and Mortality in COVID-19 Patients Ä±n Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Excluded", "Rex"=&gt;"Maybe", "dn.borg"=&gt;"Maybe"} | RAYYAN-LABELS: Prognosis,Development,development | USER-NOTES: {"dn.borg"=&gt;["Limited info."], "Rex"=&gt;["DECISION:EXCLUDE"]}</t>
@@ -933,7 +933,7 @@
     <t xml:space="preserve">rayyan-325728188</t>
   </si>
   <si>
-    <t xml:space="preserve">A Prospective; Multi-center Investigational Study of IMMrayÃ¢â€žÂ¢ PanCan-d Diagnostic Assay for Early Detection of Pancreatic Ductal Adenocarcinoma in High-risk Populations; A Study of IMMrayÃ¢â€žÂ¢ PanCan-d Test for Early Detection of Pancreatic Cancer in High-risk Groups</t>
+    <t xml:space="preserve">A Prospective; Multi-center Investigational Study of IMMrayâ„¢ PanCan-d Diagnostic Assay for Early Detection of Pancreatic Ductal Adenocarcinoma in High-risk Populations; A Study of IMMrayâ„¢ PanCan-d Test for Early Detection of Pancreatic Cancer in High-risk Groups</t>
   </si>
   <si>
     <t xml:space="preserve">rayyan-325728191</t>
@@ -1659,7 +1659,7 @@
     <t xml:space="preserve">rayyan-325728590</t>
   </si>
   <si>
-    <t xml:space="preserve">Prospective Collection of Data in Pts With Peripheral T-Cell Lymphoma: PTCL;NOS;AITL; Extranodal NK/T-cell;Enteropathy-type; Hepatosplenic ÃŽÂ³-ÃŽÂ´; Subcutaneous Panniculitis-like; ALCL;Primary Systemic Type. By the Intl. T-Cell Lymphoma Project; T-Cell Project: Prospective Collection of Data in Patients With Peripheral T-Cell Lymphoma</t>
+    <t xml:space="preserve">Prospective Collection of Data in Pts With Peripheral T-Cell Lymphoma: PTCL;NOS;AITL; Extranodal NK/T-cell;Enteropathy-type; Hepatosplenic Î³-Î´; Subcutaneous Panniculitis-like; ALCL;Primary Systemic Type. By the Intl. T-Cell Lymphoma Project; T-Cell Project: Prospective Collection of Data in Patients With Peripheral T-Cell Lymphoma</t>
   </si>
   <si>
     <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Excluded", "dn.borg"=&gt;"Included"} | RAYYAN-LABELS: Prognosis,Development | USER-NOTES: {"Rex"=&gt;["DECISION:EXCLUDE", "BIOMARKERS + REGISTRY"]}</t>
@@ -1737,7 +1737,7 @@
     <t xml:space="preserve">rayyan-325728613</t>
   </si>
   <si>
-    <t xml:space="preserve">International GBS Outcome Study (IGOS): A Prospective INC Study on Clinical and Biological Predictors of Disease Course and Outcome in Guillain-BarrÃƒÂ© Syndrome (GBS).; International Guillain-BarrÃƒÂ© Syndrome Outcome Study</t>
+    <t xml:space="preserve">International GBS Outcome Study (IGOS): A Prospective INC Study on Clinical and Biological Predictors of Disease Course and Outcome in Guillain-BarrÃ© Syndrome (GBS).; International Guillain-BarrÃ© Syndrome Outcome Study</t>
   </si>
   <si>
     <t xml:space="preserve">RAYYAN-INCLUSION: {"Nicole"=&gt;"Included", "Rex"=&gt;"Excluded", "dn.borg"=&gt;"Maybe"} | RAYYAN-LABELS: prognosis,development | RAYYAN-EXCLUSION-REASONS: wrong study design | USER-NOTES: {"Rex"=&gt;["DECISION:INCLUDE"]}</t>
@@ -2718,7 +2718,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -3037,10 +3037,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -11215,10 +11215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
